--- a/Summarise models.xlsx
+++ b/Summarise models.xlsx
@@ -8,38 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://playtika-my.sharepoint.com/personal/shahars_playtika_com/Documents/Documents/GitHub/Statistics-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="11_F25DC773A252ABDACC104853E1DC471A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B55CE47C-B7FE-4391-8C7C-47F2C9C3D8D8}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="11_F25DC773A252ABDACC104853E1DC471A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F49D47-1162-4285-808A-9A929A8F65A8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1Y" sheetId="2" r:id="rId1"/>
+    <sheet name="2Y" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
   <si>
     <t>Estimate</t>
   </si>
   <si>
     <t>Std. Error</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>***</t>
   </si>
   <si>
     <t>Logistic model</t>
@@ -166,6 +169,78 @@
       </rPr>
       <t>- From Feb21</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Coefficient distribution is shown in a separate graph</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SES - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group 6-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SES - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group 9-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gender - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Female</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type of pregnency - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spntaneous</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
+  </si>
+  <si>
+    <t>&lt;0.1</t>
   </si>
 </sst>
 </file>
@@ -210,18 +285,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -309,11 +384,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -321,89 +433,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,6 +580,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,400 +848,1147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D56BC0C-6107-419F-B05A-9A618735733E}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="41">
+        <v>0.27</v>
+      </c>
+      <c r="C3" s="42">
+        <v>0.48</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="41">
+        <v>-0.36</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0.47</v>
+      </c>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="D4" s="34" t="str">
+        <f>"&lt;0.01"</f>
+        <v>&lt;0.01</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="G4" s="34" t="str">
+        <f>"&lt;0.01"</f>
+        <v>&lt;0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.38</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="D5" s="34" t="str">
+        <f>"&lt;0.05"</f>
+        <v>&lt;0.05</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="G5" s="34" t="str">
+        <f>"&lt;0.1"</f>
+        <v>&lt;0.1</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="33">
+        <v>-0.47</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="D6" s="34" t="str">
+        <f>"&lt;0.001"</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="E6" s="33">
+        <v>-0.46</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="G6" s="34" t="str">
+        <f>"&lt;0.001"</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="33">
+        <v>-0.36</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="D7" s="34" t="str">
+        <f>"&lt;0.1"</f>
+        <v>&lt;0.1</v>
+      </c>
+      <c r="E7" s="33">
+        <v>-0.38</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="G7" s="34" t="str">
+        <f>"&lt;0.1"</f>
+        <v>&lt;0.1</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="41">
+        <v>-0.36</v>
+      </c>
+      <c r="L7" s="42">
+        <v>0.47</v>
+      </c>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="41">
+        <v>-0.01</v>
+      </c>
+      <c r="C8" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="41">
+        <v>-0.02</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="J8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="41">
+        <v>0.17</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.16</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="J9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="41">
+        <v>0.04</v>
+      </c>
+      <c r="C10" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="43" t="str">
+        <f>"&lt;0.01"</f>
+        <v>&lt;0.01</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.04</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="43" t="str">
+        <f>"&lt;0.01"</f>
+        <v>&lt;0.01</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="33">
+        <v>-0.46</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="41">
+        <v>0.46</v>
+      </c>
+      <c r="C11" s="42">
+        <v>0.24</v>
+      </c>
+      <c r="D11" s="43" t="str">
+        <f>"&lt;0.1"</f>
+        <v>&lt;0.1</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0.24</v>
+      </c>
+      <c r="G11" s="43" t="str">
+        <f>"&lt;0.1"</f>
+        <v>&lt;0.1</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="33">
+        <v>-0.38</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="41">
+        <v>0.23</v>
+      </c>
+      <c r="C12" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="41">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="J12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="41">
+        <v>-0.02</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="41">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="41">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="J13" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="L13" s="42">
+        <v>0.16</v>
+      </c>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="33">
+        <v>-1.06</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="34" t="str">
+        <f>"&lt;0.001"</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="47"/>
+      <c r="J14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="41">
+        <v>0.04</v>
+      </c>
+      <c r="L14" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="33">
+        <v>-0.39</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="D15" s="34" t="str">
+        <f>"&lt;0.1"</f>
+        <v>&lt;0.1</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="47"/>
+      <c r="J15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0.24</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="44">
+        <v>-0.06</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0.26</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="48"/>
+      <c r="J16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="41">
+        <v>0.23</v>
+      </c>
+      <c r="L16" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="J17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="41">
+        <v>0.04</v>
+      </c>
+      <c r="L17" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="M17" s="43"/>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="J18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="39"/>
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="J19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="J20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K18:M20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E14:G16"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G6" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="22.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="2" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="22.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="29.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.453125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-0.39345000000000002</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0.52188999999999997</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="35">
+        <v>0.14874000000000001</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0.52495000000000003</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.24523</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0.15765999999999999</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="35">
+        <v>0.24825</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.15765999999999999</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8.6459999999999995E-2</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0.18682000000000001</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="35">
+        <v>9.146E-2</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.18676000000000001</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B6" s="17">
+        <v>-0.27245000000000003</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0.10484</v>
+      </c>
+      <c r="D6" s="37" t="str">
+        <f>"&lt;0.01"</f>
+        <v>&lt;0.01</v>
+      </c>
+      <c r="E6" s="36">
+        <v>-0.27644999999999997</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0.10492</v>
+      </c>
+      <c r="G6" s="38" t="str">
+        <f>"&lt;0.01"</f>
+        <v>&lt;0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.4660000000000001E-2</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0.13708999999999999</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="35">
+        <v>2.3050000000000001E-2</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.13719000000000001</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="J7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.25258999999999998</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0.16003000000000001</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="35">
+        <v>0.25768000000000002</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.16012999999999999</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-3.9699999999999996E-3</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1.34E-2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="35">
+        <v>-5.7800000000000004E-3</v>
+      </c>
+      <c r="F9" s="35">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="J9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0.14874000000000001</v>
+      </c>
+      <c r="L9" s="35">
+        <v>0.52495000000000003</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-3.4320000000000003E-2</v>
+      </c>
+      <c r="C10" s="35">
+        <v>0.22261</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="35">
+        <v>-4.4400000000000002E-2</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0.22244</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="J10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="26" t="s">
+      <c r="K10" s="35">
+        <v>0.24825</v>
+      </c>
+      <c r="L10" s="35">
+        <v>0.15765999999999999</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.17624999999999999</v>
+      </c>
+      <c r="C11" s="35">
+        <v>0.16386000000000001</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="35">
+        <v>0.17185</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0.16381000000000001</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="J11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="K11" s="35">
+        <v>9.146E-2</v>
+      </c>
+      <c r="L11" s="35">
+        <v>0.18676000000000001</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B12" s="17">
+        <v>-0.13491</v>
+      </c>
+      <c r="C12" s="36">
+        <v>5.2429999999999997E-2</v>
+      </c>
+      <c r="D12" s="37" t="str">
+        <f>"&lt;0.05"</f>
+        <v>&lt;0.05</v>
+      </c>
+      <c r="E12" s="36">
+        <v>-0.13783999999999999</v>
+      </c>
+      <c r="F12" s="36">
+        <v>5.2490000000000002E-2</v>
+      </c>
+      <c r="G12" s="38" t="str">
+        <f>"&lt;0.01"</f>
+        <v>&lt;0.01</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="36">
+        <v>-0.27644999999999997</v>
+      </c>
+      <c r="L12" s="36">
+        <v>0.10492</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>9.5909999999999995E-2</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0.19236</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="35">
+        <v>0.11173</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0.19231000000000001</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="J13" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="35">
+        <v>2.3050000000000001E-2</v>
+      </c>
+      <c r="L13" s="35">
+        <v>0.13719000000000001</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.29187000000000002</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0.25724999999999998</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="35">
+        <v>0.3019</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.25734000000000001</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="J14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="35">
+        <v>0.25768000000000002</v>
+      </c>
+      <c r="L14" s="35">
+        <v>0.16012999999999999</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-0.12182</v>
+      </c>
+      <c r="C15" s="35">
+        <v>0.21684999999999999</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="35">
+        <v>-0.10421</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0.21681</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="J15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="35">
+        <v>-5.7800000000000004E-3</v>
+      </c>
+      <c r="L15" s="35">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.18498999999999999</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0.11935</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="35">
+        <v>0.16986000000000001</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0.11912</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="J16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="35">
+        <v>-4.4400000000000002E-2</v>
+      </c>
+      <c r="L16" s="35">
+        <v>0.22244</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="B17" s="17">
+        <v>0.36824000000000001</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.17741999999999999</v>
+      </c>
+      <c r="D17" s="37" t="str">
+        <f>"&lt;0.05"</f>
+        <v>&lt;0.05</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="35">
+        <v>0.17185</v>
+      </c>
+      <c r="L17" s="35">
+        <v>0.16381000000000001</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.71763999999999994</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="D18" s="37" t="str">
+        <f>"&lt;0.001"</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="36">
+        <v>-0.13783999999999999</v>
+      </c>
+      <c r="L18" s="36">
+        <v>5.2490000000000002E-2</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="20">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.22308</v>
+      </c>
+      <c r="D19" s="40" t="str">
+        <f>"&lt;0.01"</f>
+        <v>&lt;0.01</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="35">
+        <v>0.11173</v>
+      </c>
+      <c r="L19" s="35">
+        <v>0.19231000000000001</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="35">
+        <v>0.3019</v>
+      </c>
+      <c r="L20" s="35">
+        <v>0.25734000000000001</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="35">
+        <v>-0.10421</v>
+      </c>
+      <c r="L21" s="35">
+        <v>0.21681</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="35">
+        <v>0.16986000000000001</v>
+      </c>
+      <c r="L22" s="35">
+        <v>0.11912</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J23" s="31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="K23" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="39"/>
+      <c r="M23" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J24" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="20">
-        <v>-0.39345000000000002</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0.52188999999999997</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21">
-        <v>0.14874000000000001</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.52495000000000003</v>
-      </c>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="20">
-        <v>0.24523</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.15765999999999999</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21">
-        <v>0.24825</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0.15765999999999999</v>
-      </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="20">
-        <v>8.6459999999999995E-2</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0.18682000000000001</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21">
-        <v>9.146E-2</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0.18676000000000001</v>
-      </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16">
-        <v>-0.27245000000000003</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.10484</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-0.27644999999999997</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.10492</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="20">
-        <v>2.4660000000000001E-2</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.13708999999999999</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21">
-        <v>2.3050000000000001E-2</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.13719000000000001</v>
-      </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="20">
-        <v>0.25258999999999998</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.16003000000000001</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21">
-        <v>0.25768000000000002</v>
-      </c>
-      <c r="F8" s="21">
-        <v>0.16012999999999999</v>
-      </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="20">
-        <v>-3.9699999999999996E-3</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1.34E-2</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21">
-        <v>-5.7800000000000004E-3</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1.3440000000000001E-2</v>
-      </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="20">
-        <v>-3.4320000000000003E-2</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0.22261</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21">
-        <v>-4.4400000000000002E-2</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.22244</v>
-      </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="20">
-        <v>0.17624999999999999</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.16386000000000001</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21">
-        <v>0.17185</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.16381000000000001</v>
-      </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J25" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
-        <v>-0.13491</v>
-      </c>
-      <c r="C12" s="6">
-        <v>5.2429999999999997E-2</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-0.13783999999999999</v>
-      </c>
-      <c r="F12" s="6">
-        <v>5.2490000000000002E-2</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="20">
-        <v>9.5909999999999995E-2</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0.19236</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21">
-        <v>0.11173</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.19231000000000001</v>
-      </c>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="20">
-        <v>0.29187000000000002</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.25724999999999998</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>0.3019</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0.25734000000000001</v>
-      </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="20">
-        <v>-0.12182</v>
-      </c>
-      <c r="C15" s="21">
-        <v>0.21684999999999999</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21">
-        <v>-0.10421</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0.21681</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="20">
-        <v>0.18498999999999999</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.11935</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21">
-        <v>0.16986000000000001</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0.11912</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="16">
-        <v>0.36824000000000001</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.17741999999999999</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="16">
-        <v>0.71763999999999994</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.18260000000000001</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="17">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.22308</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="K23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:M7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Summarise models.xlsx
+++ b/Summarise models.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://playtika-my.sharepoint.com/personal/shahars_playtika_com/Documents/Documents/GitHub/Statistics-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="450" documentId="11_F25DC773A252ABDACC104853E1DC471A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99780040-1DE5-4772-9BDF-AF27649BDE7A}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="11_F25DC773A252ABDACC104853E1DC471A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D0BFEC-4DD0-4B29-B195-67B5CF0AC583}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1Y" sheetId="2" r:id="rId1"/>
     <sheet name="2Y" sheetId="1" r:id="rId2"/>
+    <sheet name="Risk" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>Estimate</t>
   </si>
@@ -259,12 +260,39 @@
       <t>Female</t>
     </r>
   </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>2y</t>
+  </si>
+  <si>
+    <t>Up to March19</t>
+  </si>
+  <si>
+    <t>March19 to March 20</t>
+  </si>
+  <si>
+    <t>March20 to Feb21</t>
+  </si>
+  <si>
+    <t>From Feb21</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +313,13 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -445,10 +480,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -474,9 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -496,9 +530,68 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,77 +599,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -587,11 +619,104 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -907,453 +1032,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D56BC0C-6107-419F-B05A-9A618735733E}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9" customWidth="1"/>
+    <col min="2" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
-      <c r="B2" s="35" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="39"/>
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="27">
         <v>-0.93</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="55">
         <v>0.45</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="55">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="E3" s="56"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="27">
         <v>0.49</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="55">
         <v>0.15</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="55">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="27">
         <v>0.39</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="55">
         <v>0.18</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="55">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="E5" s="56"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="27">
         <v>-0.39</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="55">
         <v>0.1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="55">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="E6" s="56"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="27">
         <v>-0.39</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="55">
         <v>0.19</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="55">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="E7" s="56"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="23">
         <v>0</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="57">
         <v>0.13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="57">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="23">
         <v>0.22</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="57">
         <v>0.15</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="57">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="27">
         <v>0.04</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="55">
         <v>0.01</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="55">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="56"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="27">
         <v>0.45</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="55">
         <v>0.22</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="55">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="23">
         <v>0.2</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="57">
         <v>0.16</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="57">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="23">
         <v>0.08</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="57">
         <v>0.05</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="57">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="23">
         <v>-0.15</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="57">
         <v>0.18</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="57">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="E14" s="59">
+        <f>EXP(B14)</f>
+        <v>0.86070797642505781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="23">
         <v>0.05</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="57">
         <v>0.18</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="57">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="E15" s="59">
+        <f t="shared" ref="E15:E16" si="0">EXP(B15)</f>
+        <v>1.0512710963760241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="30">
         <v>0.73</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>0.23</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="14">
         <v>0</v>
       </c>
+      <c r="E16" s="60">
+        <f t="shared" si="0"/>
+        <v>2.0750806076741224</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="28">
         <v>-0.94527000000000005</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="28">
         <v>0.44740000000000002</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="29">
         <v>3.4619999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="28">
         <v>0.48551</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="28">
         <v>0.15411</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="29">
         <v>1.6299999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="28">
         <v>0.3755</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="28">
         <v>0.18232000000000001</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="29">
         <v>3.943E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="28">
         <v>-0.37953999999999999</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="28">
         <v>0.10172</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="29">
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="28">
         <v>-0.4254</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="28">
         <v>0.191</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="29">
         <v>2.5930000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="22">
         <v>6.3699999999999998E-3</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="22">
         <v>0.13231999999999999</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="19">
         <v>0.96162000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="22">
         <v>0.23727999999999999</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="22">
         <v>0.15168999999999999</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="19">
         <v>0.11774999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="28">
         <v>3.8730000000000001E-2</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="28">
         <v>1.316E-2</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="29">
         <v>3.2499999999999999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="28">
         <v>0.44175999999999999</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="28">
         <v>0.22267000000000001</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="29">
         <v>4.727E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="22">
         <v>0.20347999999999999</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="22">
         <v>0.15995000000000001</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="19">
         <v>0.20330000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="22">
         <v>8.3909999999999998E-2</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="22">
         <v>5.1339999999999997E-2</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="19">
         <v>0.10217</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="31">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="36">
         <v>1.7E-5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="32"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1366,308 +1520,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.54296875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.54296875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>-0.83</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="17">
         <v>0.52</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="17">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>0.37</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="31">
         <v>0.16</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="31">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="17">
         <v>0.19</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="17">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="31">
         <v>0.1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="31">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>0.1</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="17">
         <v>0.13</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="17">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>0.19</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="17">
         <v>0.15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="17">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>-0.02</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="17">
         <v>0.01</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="17">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>0.08</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="17">
         <v>0.22</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="17">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>0.08</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="17">
         <v>0.16</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="17">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>-0.09</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="31">
         <v>0.05</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>0.04</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="17">
         <v>0.19</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="17">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>0.43</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="17">
         <v>0.27</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="17">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>-0.32</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="17">
         <v>0.22</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="17">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>0.17</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="17">
         <v>0.12</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="17">
         <v>0.14000000000000001</v>
       </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>0.38</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="31">
         <v>0.18</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="31">
         <v>0.04</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="29">
+        <f>EXP(B17)</f>
+        <v>1.4622845894342245</v>
+      </c>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>0.64</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="31">
         <v>0.19</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="31">
         <v>0</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="29">
+        <f>EXP(B18)</f>
+        <v>1.8964808793049515</v>
+      </c>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="33">
         <v>0.67</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="34">
         <v>0.22</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="34">
         <v>0</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="35">
+        <f>EXP(B19)</f>
+        <v>1.9542373206359396</v>
+      </c>
+      <c r="F19" s="49"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
+      <c r="A21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1675,27 +1858,27 @@
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="18">
         <v>-0.32819999999999999</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="18">
         <v>0.51949999999999996</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="19">
         <v>0.52759999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="32">
         <v>0.37030000000000002</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="32">
         <v>0.1578</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="29">
         <v>1.89E-2</v>
       </c>
     </row>
@@ -1703,13 +1886,13 @@
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="18">
         <v>0.1401</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="18">
         <v>0.18629999999999999</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="19">
         <v>0.45200000000000001</v>
       </c>
     </row>
@@ -1717,13 +1900,13 @@
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="32">
         <v>-0.28299999999999997</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="32">
         <v>0.1014</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="29">
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
@@ -1731,13 +1914,13 @@
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="18">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="18">
         <v>0.1303</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="19">
         <v>0.45529999999999998</v>
       </c>
     </row>
@@ -1745,13 +1928,13 @@
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="18">
         <v>0.19789999999999999</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="18">
         <v>0.14860000000000001</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="19">
         <v>0.18310000000000001</v>
       </c>
     </row>
@@ -1759,13 +1942,13 @@
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="18">
         <v>-1.9800000000000002E-2</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="18">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="19">
         <v>0.12770000000000001</v>
       </c>
     </row>
@@ -1773,13 +1956,13 @@
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="18">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="18">
         <v>0.221</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="19">
         <v>0.72570000000000001</v>
       </c>
     </row>
@@ -1787,13 +1970,13 @@
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="18">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="18">
         <v>0.16189999999999999</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="19">
         <v>0.60680000000000001</v>
       </c>
     </row>
@@ -1801,13 +1984,13 @@
       <c r="A34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="32">
         <v>-9.5399999999999999E-2</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="32">
         <v>5.16E-2</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="29">
         <v>6.4699999999999994E-2</v>
       </c>
     </row>
@@ -1815,13 +1998,13 @@
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="18">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="18">
         <v>0.18779999999999999</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="19">
         <v>0.76659999999999995</v>
       </c>
     </row>
@@ -1829,13 +2012,13 @@
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="18">
         <v>0.42080000000000001</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="18">
         <v>0.2671</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="19">
         <v>0.11509999999999999</v>
       </c>
     </row>
@@ -1843,13 +2026,13 @@
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="18">
         <v>-0.32029999999999997</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="18">
         <v>0.218</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="19">
         <v>0.14180000000000001</v>
       </c>
     </row>
@@ -1857,13 +2040,13 @@
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="18">
         <v>0.14580000000000001</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="18">
         <v>0.1158</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="19">
         <v>0.20780000000000001</v>
       </c>
     </row>
@@ -1871,9 +2054,9 @@
       <c r="A39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="50">
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="47">
         <v>3.3000000000000003E-5</v>
       </c>
     </row>
@@ -1881,41 +2064,129 @@
       <c r="A40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="47"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="48"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B39:C41"/>
     <mergeCell ref="D39:D41"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D19">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D39">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E61670A-EC09-4D32-BBF9-D4AD18A0D1AA}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="39"/>
+      <c r="B2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="51">
+        <v>0.58945999999999998</v>
+      </c>
+      <c r="C3" s="52">
+        <v>0.4204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="51">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="C4" s="52">
+        <v>0.51346999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="51">
+        <v>0.60158</v>
+      </c>
+      <c r="C5" s="52">
+        <v>0.57918000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="53">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.58667999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Summarise models.xlsx
+++ b/Summarise models.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://playtika-my.sharepoint.com/personal/shahars_playtika_com/Documents/Documents/GitHub/Statistics-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edena\Documents\GitHub\Statistics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="771" documentId="11_F25DC773A252ABDACC104853E1DC471A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D54ACFA6-5445-4C26-96EB-FA0B9BB0B04B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F6FE08-CFBC-456D-8B28-3D9627A93529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="2" r:id="rId1"/>
-    <sheet name="Risk" sheetId="3" r:id="rId2"/>
+    <sheet name="for the poster" sheetId="4" r:id="rId2"/>
+    <sheet name="Risk" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="39">
   <si>
     <t>Estimate</t>
   </si>
@@ -164,7 +165,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -172,7 +173,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -185,7 +186,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,7 +194,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -366,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,53 +408,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,31 +436,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -510,10 +495,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,77 +762,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D56BC0C-6107-419F-B05A-9A618735733E}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="42" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="H5" s="20" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="H5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -864,7 +847,7 @@
       <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="9" t="s">
         <v>0</v>
       </c>
@@ -880,482 +863,482 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="22">
         <v>-1.5417000000000001</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="19">
         <v>0.47439999999999999</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="19">
         <v>1.15E-3</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="25">
         <v>-1.70556</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="25">
         <v>0.56418000000000001</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="25">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="22">
         <v>0.50729999999999997</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="19">
         <v>0.155</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="19">
         <v>1.07E-3</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5"/>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="19">
         <v>0.32424999999999998</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="19">
         <v>0.16411000000000001</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="19">
         <v>4.8180000000000001E-2</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="22">
         <v>0.41360000000000002</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="19">
         <v>0.18390000000000001</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="19">
         <v>2.453E-2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5"/>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="20">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="20">
         <v>0.19434999999999999</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="20">
         <v>0.6159</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="22">
         <v>-0.3735</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="19">
         <v>0.1019</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="19">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5"/>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="20">
         <v>-0.1701</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="20">
         <v>0.10539</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="20">
         <v>0.10654</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="22">
         <v>0.42320000000000002</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="19">
         <v>0.122</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="19">
         <v>5.1999999999999995E-4</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="20">
         <v>-0.11457000000000001</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="20">
         <v>0.12583</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="20">
         <v>0.36252000000000001</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="22">
         <v>0.40639999999999998</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="19">
         <v>0.1993</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="19">
         <v>4.1459999999999997E-2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="5"/>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="19">
         <v>-0.43623000000000001</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="19">
         <v>0.20812</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="19">
         <v>3.6080000000000001E-2</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="23">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="20">
         <v>0.17460000000000001</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="20">
         <v>0.79447000000000001</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="5"/>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="20">
         <v>0.12436999999999999</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="20">
         <v>0.18092</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="20">
         <v>0.49181999999999998</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="22">
         <v>-0.42649999999999999</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="19">
         <v>0.19259999999999999</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="19">
         <v>2.681E-2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="5"/>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="20">
         <v>9.3840000000000007E-2</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="20">
         <v>0.19531999999999999</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="20">
         <v>0.63090000000000002</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="22">
         <v>0.27210000000000001</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="19">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="19">
         <v>2.2239999999999999E-2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="5"/>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="20">
         <v>4.6620000000000002E-2</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="20">
         <v>0.1227</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="20">
         <v>0.70399999999999996</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="22">
         <v>0.45879999999999999</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="19">
         <v>0.157</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="19">
         <v>3.48E-3</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="5"/>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="20">
         <v>-2.1770000000000001E-2</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="20">
         <v>0.15944</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="20">
         <v>0.89137999999999995</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="23">
         <v>0.24329999999999999</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="20">
         <v>0.152</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="20">
         <v>0.10962</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="5"/>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="20">
         <v>8.616E-2</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="20">
         <v>0.15507000000000001</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="20">
         <v>0.57847999999999999</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="23">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="20">
         <v>0.13289999999999999</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="20">
         <v>0.81391999999999998</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="5"/>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="20">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="20">
         <v>0.13538</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="20">
         <v>0.31013000000000002</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="22">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="19">
         <v>1.29E-2</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="19">
         <v>1.2600000000000001E-3</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="5"/>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="19">
         <v>-2.3040000000000001E-2</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="19">
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="19">
         <v>8.4430000000000005E-2</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="22">
         <v>0.48709999999999998</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="19">
         <v>0.2238</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="19">
         <v>2.9489999999999999E-2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="5"/>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="20">
         <v>3.0200000000000001E-3</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="20">
         <v>0.22928999999999999</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="20">
         <v>0.98948000000000003</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="22">
         <v>0.29649999999999999</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="19">
         <v>0.16350000000000001</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="19">
         <v>6.9790000000000005E-2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="5"/>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="20">
         <v>0.11156000000000001</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="20">
         <v>0.17058999999999999</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="20">
         <v>0.51315</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="23">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="20">
         <v>0.17699999999999999</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="20">
         <v>0.39989999999999998</v>
       </c>
       <c r="E22" s="6">
@@ -1363,33 +1346,33 @@
         <v>0.86156911489895827</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="19">
         <v>0.50085000000000002</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="19">
         <v>0.27792</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="19">
         <v>7.1529999999999996E-2</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="23">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="20">
         <v>0.18049999999999999</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="20">
         <v>0.80954000000000004</v>
       </c>
       <c r="E23" s="6">
@@ -1397,33 +1380,33 @@
         <v>1.0444599943120261</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="19">
         <v>-0.38217000000000001</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="19">
         <v>0.22609000000000001</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="19">
         <v>9.0969999999999995E-2</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="24">
         <v>0.6885</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="21">
         <v>0.22320000000000001</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="21">
         <v>2.0400000000000001E-3</v>
       </c>
       <c r="E24" s="14">
@@ -1431,75 +1414,75 @@
         <v>1.990727201752148</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="20">
         <v>-7.6660000000000006E-2</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="20">
         <v>0.12336999999999999</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="20">
         <v>0.53437999999999997</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H25" s="30" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="19">
         <v>0.83769000000000005</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="19">
         <v>0.10907</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="19">
         <v>1.6000000000000001E-14</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H26" s="30" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="19">
         <v>0.75822999999999996</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="19">
         <v>0.11864</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="19">
         <v>1.5999999999999999E-10</v>
       </c>
-      <c r="L26" s="29"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="H27" s="30" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="H27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="19">
         <v>0.69320000000000004</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="19">
         <v>0.19577</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="19">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="L27" s="12">
@@ -1509,8 +1492,8 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
       <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
@@ -1520,16 +1503,16 @@
       <c r="D28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="19">
         <v>0.70931999999999995</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="19">
         <v>0.19308</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="19">
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="L28" s="12">
@@ -1539,29 +1522,29 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="19">
         <v>-1.5549999999999999</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="19">
         <v>0.4763</v>
       </c>
       <c r="D29" s="12">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="21">
         <v>0.65810000000000002</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="21">
         <v>0.22813</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="21">
         <v>3.9199999999999999E-3</v>
       </c>
       <c r="L29" s="14">
@@ -1571,14 +1554,14 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="19">
         <v>0.50460000000000005</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="19">
         <v>0.155</v>
       </c>
       <c r="D30" s="12">
@@ -1592,14 +1575,14 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="19">
         <v>0.40279999999999999</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="19">
         <v>0.184</v>
       </c>
       <c r="D31" s="12">
@@ -1613,14 +1596,14 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="19">
         <v>-0.36730000000000002</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="19">
         <v>0.10199999999999999</v>
       </c>
       <c r="D32" s="12">
@@ -1634,45 +1617,45 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="19">
         <v>0.42349999999999999</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="19">
         <v>0.122</v>
       </c>
       <c r="D33" s="12">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="19">
         <v>0.41810000000000003</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="19">
         <v>0.19989999999999999</v>
       </c>
       <c r="D34" s="12">
         <v>3.6479999999999999E-2</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="9" t="s">
         <v>0</v>
       </c>
@@ -1686,26 +1669,26 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="31" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="20">
         <v>4.36E-2</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="20">
         <v>0.17499999999999999</v>
       </c>
       <c r="D35" s="6">
         <v>0.80306</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="19">
         <v>-1.0325</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="19">
         <v>0.56310000000000004</v>
       </c>
       <c r="K35" s="12">
@@ -1715,26 +1698,26 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="19">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="19">
         <v>0.1925</v>
       </c>
       <c r="D36" s="12">
         <v>1.7340000000000001E-2</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="19">
         <v>0.32219999999999999</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="19">
         <v>0.1643</v>
       </c>
       <c r="K36" s="12">
@@ -1744,26 +1727,26 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="30" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="19">
         <v>0.2772</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="19">
         <v>0.1193</v>
       </c>
       <c r="D37" s="12">
         <v>2.0209999999999999E-2</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="20">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="20">
         <v>0.19450000000000001</v>
       </c>
       <c r="K37" s="6">
@@ -1773,26 +1756,26 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="19">
         <v>0.46479999999999999</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="19">
         <v>0.15709999999999999</v>
       </c>
       <c r="D38" s="12">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="20">
         <v>-0.17180000000000001</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="20">
         <v>0.1056</v>
       </c>
       <c r="K38" s="6">
@@ -1802,26 +1785,26 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="19">
         <v>0.26419999999999999</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="19">
         <v>0.15229999999999999</v>
       </c>
       <c r="D39" s="12">
         <v>8.2839999999999997E-2</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="20">
         <v>-0.11650000000000001</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="20">
         <v>0.1258</v>
       </c>
       <c r="K39" s="6">
@@ -1831,26 +1814,26 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="31" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="20">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="20">
         <v>0.1331</v>
       </c>
       <c r="D40" s="6">
         <v>0.80164999999999997</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="19">
         <v>-0.45989999999999998</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="19">
         <v>0.2089</v>
       </c>
       <c r="K40" s="12">
@@ -1860,26 +1843,26 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="30" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="19">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D41" s="12">
         <v>5.9000000000000003E-4</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="20">
         <v>0.13800000000000001</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J41" s="20">
         <v>0.18099999999999999</v>
       </c>
       <c r="K41" s="6">
@@ -1889,26 +1872,26 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="30" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="19">
         <v>0.48480000000000001</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="19">
         <v>0.22409999999999999</v>
       </c>
       <c r="D42" s="12">
         <v>3.049E-2</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="20">
         <v>0.1051</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="20">
         <v>0.1961</v>
       </c>
       <c r="K42" s="6">
@@ -1918,26 +1901,26 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="30" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="19">
         <v>0.30099999999999999</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="19">
         <v>0.1636</v>
       </c>
       <c r="D43" s="12">
         <v>6.583E-2</v>
       </c>
-      <c r="H43" s="31" t="s">
+      <c r="H43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="20">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="20">
         <v>0.123</v>
       </c>
       <c r="K43" s="6">
@@ -1947,22 +1930,22 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="27">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="29">
         <v>0</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="20">
         <v>-3.2099999999999997E-2</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44" s="20">
         <v>0.15959999999999999</v>
       </c>
       <c r="K44" s="6">
@@ -1972,20 +1955,20 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="27"/>
-      <c r="H45" s="31" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="29"/>
+      <c r="H45" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="20">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="20">
         <v>0.15529999999999999</v>
       </c>
       <c r="K45" s="6">
@@ -1995,20 +1978,20 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="28"/>
-      <c r="H46" s="31" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="30"/>
+      <c r="H46" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="20">
         <v>0.13619999999999999</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="20">
         <v>0.1356</v>
       </c>
       <c r="K46" s="6">
@@ -2018,14 +2001,14 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H47" s="30" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="19">
         <v>-2.58E-2</v>
       </c>
-      <c r="J47" s="33">
+      <c r="J47" s="19">
         <v>1.34E-2</v>
       </c>
       <c r="K47" s="12">
@@ -2035,14 +2018,14 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H48" s="31" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H48" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="20">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="J48" s="34">
+      <c r="J48" s="20">
         <v>0.22950000000000001</v>
       </c>
       <c r="K48" s="6">
@@ -2052,14 +2035,14 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H49" s="31" t="s">
+    <row r="49" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="20">
         <v>0.1162</v>
       </c>
-      <c r="J49" s="34">
+      <c r="J49" s="20">
         <v>0.17069999999999999</v>
       </c>
       <c r="K49" s="6">
@@ -2069,14 +2052,14 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H50" s="30" t="s">
+    <row r="50" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H50" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="19">
         <v>0.50819999999999999</v>
       </c>
-      <c r="J50" s="33">
+      <c r="J50" s="19">
         <v>0.2787</v>
       </c>
       <c r="K50" s="12">
@@ -2086,14 +2069,14 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H51" s="31" t="s">
+    <row r="51" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H51" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="20">
         <v>-0.36549999999999999</v>
       </c>
-      <c r="J51" s="34">
+      <c r="J51" s="20">
         <v>0.22650000000000001</v>
       </c>
       <c r="K51" s="6">
@@ -2103,14 +2086,14 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H52" s="31" t="s">
+    <row r="52" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H52" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="20">
         <v>-8.9200000000000002E-2</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="20">
         <v>0.1241</v>
       </c>
       <c r="K52" s="6">
@@ -2120,14 +2103,14 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H53" s="30" t="s">
+    <row r="53" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H53" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="19">
         <v>0.84619999999999995</v>
       </c>
-      <c r="J53" s="33">
+      <c r="J53" s="19">
         <v>0.1095</v>
       </c>
       <c r="K53" s="12">
@@ -2137,14 +2120,14 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H54" s="30" t="s">
+    <row r="54" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H54" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="19">
         <v>0.75180000000000002</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J54" s="19">
         <v>0.1188</v>
       </c>
       <c r="K54" s="12">
@@ -2154,35 +2137,35 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H55" s="30" t="s">
+    <row r="55" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H55" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="27">
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="29">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H56" s="30" t="s">
+    <row r="56" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H56" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="27"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="29"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H57" s="32" t="s">
+    <row r="57" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H57" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="28"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="30"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
@@ -2207,30 +2190,646 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9A3F7-BE72-43C3-BC6B-D24E893A6BDB}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.08203125" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="25">
+        <v>-1.70556</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.56418000000000001</v>
+      </c>
+      <c r="D3" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="19">
+        <v>-1.0325</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.56310000000000004</v>
+      </c>
+      <c r="H3" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.32424999999999998</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.16411000000000001</v>
+      </c>
+      <c r="D4" s="19">
+        <v>4.8180000000000001E-2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="19">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.1643</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="20">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.19434999999999999</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.6159</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="20">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="20">
+        <v>-0.1701</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.10539</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.10654</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="20">
+        <v>-0.17180000000000001</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.1056</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="20">
+        <v>-0.11457000000000001</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.12583</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.36252000000000001</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="20">
+        <v>-0.11650000000000001</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.1258</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="19">
+        <v>-0.43623000000000001</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.20812</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3.6080000000000001E-2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="19">
+        <v>-0.45989999999999998</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.2089</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0.12436999999999999</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.18092</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.49181999999999998</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="20">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="20">
+        <v>9.3840000000000007E-2</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.19531999999999999</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.63090000000000002</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="20">
+        <v>0.1051</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.1961</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20">
+        <v>4.6620000000000002E-2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.1227</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="20">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.123</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="20">
+        <v>-2.1770000000000001E-2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.15944</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.89137999999999995</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="20">
+        <v>-3.2099999999999997E-2</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="20">
+        <v>8.616E-2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.15507000000000001</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.57847999999999999</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="20">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.13538</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.31013000000000002</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="20">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.1356</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19">
+        <v>-2.3040000000000001E-2</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="D15" s="19">
+        <v>8.4430000000000005E-2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="19">
+        <v>-2.58E-2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1.34E-2</v>
+      </c>
+      <c r="H15" s="12">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20">
+        <v>3.0200000000000001E-3</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.22928999999999999</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.98948000000000003</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="20">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0.11156000000000001</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.17058999999999999</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.51315</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="20">
+        <v>0.1162</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.50085000000000002</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.27792</v>
+      </c>
+      <c r="D18" s="19">
+        <v>7.1529999999999996E-2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="19">
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.2787</v>
+      </c>
+      <c r="H18" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="19">
+        <v>-0.38217000000000001</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.22609000000000001</v>
+      </c>
+      <c r="D19" s="19">
+        <v>9.0969999999999995E-2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="20">
+        <v>-0.36549999999999999</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20">
+        <v>-7.6660000000000006E-2</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0.12336999999999999</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.53437999999999997</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="20">
+        <v>-8.9200000000000002E-2</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.1241</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0.83769000000000005</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.10907</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1.6000000000000001E-14</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="19">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0.1095</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1.1E-14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.75822999999999996</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0.11864</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1.5999999999999999E-10</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="19">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.1188</v>
+      </c>
+      <c r="H22" s="12">
+        <v>2.5000000000000002E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.19577</v>
+      </c>
+      <c r="D23" s="19">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E23" s="12">
+        <f>EXP(B23)</f>
+        <v>2.0001056416700518</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="29">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.70931999999999995</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0.19308</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="E24" s="12">
+        <f>EXP(B24)</f>
+        <v>2.0326086147430757</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0.22813</v>
+      </c>
+      <c r="D25" s="21">
+        <v>3.9199999999999999E-3</v>
+      </c>
+      <c r="E25" s="14">
+        <f>EXP(B25)</f>
+        <v>1.9311197190560914</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="H23:H25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E61670A-EC09-4D32-BBF9-D4AD18A0D1AA}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="23"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -2238,51 +2837,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16">
-        <v>0.58945999999999998</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.4204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="39">
+        <v>0.59314</v>
+      </c>
+      <c r="C3" s="40">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>0.55259999999999998</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0.51346999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="39">
+        <v>0.55674999999999997</v>
+      </c>
+      <c r="C4" s="40">
+        <v>0.54862999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
-        <v>0.60158</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.57918000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="39">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0.55262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18">
-        <v>0.74939999999999996</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.58667999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="41">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="C6" s="42">
+        <v>0.53993000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
     </row>
   </sheetData>

--- a/Summarise models.xlsx
+++ b/Summarise models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edena\Documents\GitHub\Statistics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F6FE08-CFBC-456D-8B28-3D9627A93529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E79FF7-2B68-4E11-9B04-C1F52C18BDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="2" r:id="rId1"/>
@@ -437,6 +437,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,18 +477,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D56BC0C-6107-419F-B05A-9A618735733E}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:K57"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -778,63 +778,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="28"/>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="28"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="H5" s="34" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="H5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="9" t="s">
         <v>0</v>
       </c>
@@ -1465,14 +1465,14 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="H27" s="16" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
@@ -1630,14 +1630,14 @@
       <c r="D33" s="12">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1655,7 +1655,7 @@
       <c r="D34" s="12">
         <v>3.6479999999999999E-2</v>
       </c>
-      <c r="H34" s="35"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="9" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="29">
+      <c r="D44" s="33">
         <v>0</v>
       </c>
       <c r="H44" s="17" t="s">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="29"/>
+      <c r="D45" s="33"/>
       <c r="H45" s="17" t="s">
         <v>29</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="30"/>
+      <c r="D46" s="34"/>
       <c r="H46" s="17" t="s">
         <v>30</v>
       </c>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
-      <c r="K55" s="29">
+      <c r="K55" s="33">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="M55" s="1"/>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
-      <c r="K56" s="29"/>
+      <c r="K56" s="33"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
-      <c r="K57" s="30"/>
+      <c r="K57" s="34"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
@@ -2193,7 +2193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9A3F7-BE72-43C3-BC6B-D24E893A6BDB}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2210,23 +2210,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="29">
+      <c r="H23" s="33">
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="29"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2820,16 +2820,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -2841,10 +2841,10 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>0.59314</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="30">
         <v>0.378</v>
       </c>
     </row>
@@ -2852,10 +2852,10 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="29">
         <v>0.55674999999999997</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="30">
         <v>0.54862999999999995</v>
       </c>
     </row>
@@ -2863,10 +2863,10 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="29">
         <v>0.60360000000000003</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="30">
         <v>0.55262</v>
       </c>
     </row>
@@ -2874,10 +2874,10 @@
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="31">
         <v>0.74299999999999999</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="32">
         <v>0.53993000000000002</v>
       </c>
     </row>

--- a/Summarise models.xlsx
+++ b/Summarise models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edena\Documents\GitHub\Statistics-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://playtika-my.sharepoint.com/personal/shahars_playtika_com/Documents/Documents/GitHub/Statistics-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F6FE08-CFBC-456D-8B28-3D9627A93529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{14F6FE08-CFBC-456D-8B28-3D9627A93529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5847C688-3B3F-446A-9714-03B76DD063F7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="2" r:id="rId1"/>
@@ -103,18 +103,12 @@
     <t>Gender - Female</t>
   </si>
   <si>
-    <t>Number of sibilings 1-2</t>
-  </si>
-  <si>
     <t>SES Groups 6-8</t>
   </si>
   <si>
     <t>SES Groups 9-10</t>
   </si>
   <si>
-    <t>Number of sibilings 3+</t>
-  </si>
-  <si>
     <t>Type of pregnancy - Spontaneous</t>
   </si>
   <si>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>Atopic disease 1st year</t>
+  </si>
+  <si>
+    <t>Number of siblings 1-2</t>
+  </si>
+  <si>
+    <t>Number of siblings 3+</t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +173,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -186,7 +186,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -194,7 +194,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -437,6 +437,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,18 +477,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,78 +763,78 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:K57"/>
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="31.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="28"/>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="28"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="H5" s="34" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="H5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="41"/>
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="9" t="s">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -894,9 +894,9 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="22">
         <v>0.50729999999999997</v>
@@ -910,7 +910,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="5"/>
       <c r="H8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="19">
         <v>0.32424999999999998</v>
@@ -925,9 +925,9 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="22">
         <v>0.41360000000000002</v>
@@ -941,7 +941,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="5"/>
       <c r="H9" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="20">
         <v>9.7500000000000003E-2</v>
@@ -956,7 +956,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -987,9 +987,9 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B11" s="22">
         <v>0.42320000000000002</v>
@@ -1003,7 +1003,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
       <c r="H11" s="17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I11" s="20">
         <v>-0.11457000000000001</v>
@@ -1018,9 +1018,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B12" s="22">
         <v>0.40639999999999998</v>
@@ -1034,7 +1034,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="5"/>
       <c r="H12" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I12" s="19">
         <v>-0.43623000000000001</v>
@@ -1049,9 +1049,9 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="23">
         <v>4.5499999999999999E-2</v>
@@ -1065,7 +1065,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="5"/>
       <c r="H13" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I13" s="20">
         <v>0.12436999999999999</v>
@@ -1080,9 +1080,9 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="22">
         <v>-0.42649999999999999</v>
@@ -1096,7 +1096,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="5"/>
       <c r="H14" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" s="20">
         <v>9.3840000000000007E-2</v>
@@ -1111,9 +1111,9 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="22">
         <v>0.27210000000000001</v>
@@ -1127,7 +1127,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="5"/>
       <c r="H15" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="20">
         <v>4.6620000000000002E-2</v>
@@ -1142,9 +1142,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="22">
         <v>0.45879999999999999</v>
@@ -1158,7 +1158,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="5"/>
       <c r="H16" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" s="20">
         <v>-2.1770000000000001E-2</v>
@@ -1173,9 +1173,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="23">
         <v>0.24329999999999999</v>
@@ -1189,7 +1189,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="5"/>
       <c r="H17" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I17" s="20">
         <v>8.616E-2</v>
@@ -1204,9 +1204,9 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="23">
         <v>3.1300000000000001E-2</v>
@@ -1220,7 +1220,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="5"/>
       <c r="H18" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I18" s="20">
         <v>0.13739999999999999</v>
@@ -1235,7 +1235,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>3</v>
       </c>
@@ -1297,9 +1297,9 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="22">
         <v>0.29649999999999999</v>
@@ -1313,7 +1313,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="5"/>
       <c r="H21" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21" s="20">
         <v>0.11156000000000001</v>
@@ -1328,9 +1328,9 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="23">
         <v>-0.14899999999999999</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="F22" s="5"/>
       <c r="H22" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I22" s="19">
         <v>0.50085000000000002</v>
@@ -1362,9 +1362,9 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="23">
         <v>4.3499999999999997E-2</v>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="F23" s="5"/>
       <c r="H23" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I23" s="19">
         <v>-0.38217000000000001</v>
@@ -1396,9 +1396,9 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="24">
         <v>0.6885</v>
@@ -1430,9 +1430,9 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H25" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I25" s="19">
         <v>0.83769000000000005</v>
@@ -1447,9 +1447,9 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I26" s="19">
         <v>0.75822999999999996</v>
@@ -1464,17 +1464,17 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="H27" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" s="19">
         <v>0.69320000000000004</v>
@@ -1492,8 +1492,8 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
       <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I28" s="19">
         <v>0.70931999999999995</v>
@@ -1522,7 +1522,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I29" s="21">
         <v>0.65810000000000002</v>
@@ -1554,9 +1554,9 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="19">
         <v>0.50460000000000005</v>
@@ -1575,9 +1575,9 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="19">
         <v>0.40279999999999999</v>
@@ -1596,7 +1596,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
@@ -1617,9 +1617,9 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B33" s="19">
         <v>0.42349999999999999</v>
@@ -1630,21 +1630,21 @@
       <c r="D33" s="12">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B34" s="19">
         <v>0.41810000000000003</v>
@@ -1655,7 +1655,7 @@
       <c r="D34" s="12">
         <v>3.6479999999999999E-2</v>
       </c>
-      <c r="H34" s="35"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="9" t="s">
         <v>0</v>
       </c>
@@ -1669,9 +1669,9 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="20">
         <v>4.36E-2</v>
@@ -1698,9 +1698,9 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="19">
         <v>-0.45800000000000002</v>
@@ -1712,7 +1712,7 @@
         <v>1.7340000000000001E-2</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="19">
         <v>0.32219999999999999</v>
@@ -1727,9 +1727,9 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" s="19">
         <v>0.2772</v>
@@ -1741,7 +1741,7 @@
         <v>2.0209999999999999E-2</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="20">
         <v>9.5200000000000007E-2</v>
@@ -1756,9 +1756,9 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="19">
         <v>0.46479999999999999</v>
@@ -1785,9 +1785,9 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="19">
         <v>0.26419999999999999</v>
@@ -1799,7 +1799,7 @@
         <v>8.2839999999999997E-2</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I39" s="20">
         <v>-0.11650000000000001</v>
@@ -1814,9 +1814,9 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="20">
         <v>3.3399999999999999E-2</v>
@@ -1828,7 +1828,7 @@
         <v>0.80164999999999997</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I40" s="19">
         <v>-0.45989999999999998</v>
@@ -1843,7 +1843,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>2</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I41" s="20">
         <v>0.13800000000000001</v>
@@ -1872,7 +1872,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>3.049E-2</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I42" s="20">
         <v>0.1051</v>
@@ -1901,9 +1901,9 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="19">
         <v>0.30099999999999999</v>
@@ -1915,7 +1915,7 @@
         <v>6.583E-2</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I43" s="20">
         <v>3.0800000000000001E-2</v>
@@ -1930,17 +1930,17 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="29">
+      <c r="D44" s="33">
         <v>0</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I44" s="20">
         <v>-3.2099999999999997E-2</v>
@@ -1955,15 +1955,15 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="29"/>
+      <c r="D45" s="33"/>
       <c r="H45" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I45" s="20">
         <v>9.6799999999999997E-2</v>
@@ -1978,15 +1978,15 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="30"/>
+      <c r="D46" s="34"/>
       <c r="H46" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I46" s="20">
         <v>0.13619999999999999</v>
@@ -2001,7 +2001,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H47" s="16" t="s">
         <v>2</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H48" s="17" t="s">
         <v>3</v>
       </c>
@@ -2035,9 +2035,9 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H49" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I49" s="20">
         <v>0.1162</v>
@@ -2052,9 +2052,9 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H50" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I50" s="19">
         <v>0.50819999999999999</v>
@@ -2069,9 +2069,9 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H51" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I51" s="20">
         <v>-0.36549999999999999</v>
@@ -2086,7 +2086,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H52" s="17" t="s">
         <v>4</v>
       </c>
@@ -2103,9 +2103,9 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H53" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I53" s="19">
         <v>0.84619999999999995</v>
@@ -2120,9 +2120,9 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H54" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I54" s="19">
         <v>0.75180000000000002</v>
@@ -2137,35 +2137,35 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H55" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
-      <c r="K55" s="29">
+      <c r="K55" s="33">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H56" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
-      <c r="K56" s="29"/>
+      <c r="K56" s="33"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H57" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
-      <c r="K57" s="30"/>
+      <c r="K57" s="34"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
@@ -2193,40 +2193,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9A3F7-BE72-43C3-BC6B-D24E893A6BDB}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.08203125" customWidth="1"/>
-    <col min="5" max="5" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.08203125" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="4" width="5.08984375" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="39"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
@@ -2273,9 +2273,9 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="19">
         <v>0.32424999999999998</v>
@@ -2297,9 +2297,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="20">
         <v>9.7500000000000003E-2</v>
@@ -2321,7 +2321,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2345,9 +2345,9 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B7" s="20">
         <v>-0.11457000000000001</v>
@@ -2369,9 +2369,9 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B8" s="19">
         <v>-0.43623000000000001</v>
@@ -2393,9 +2393,9 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="20">
         <v>0.12436999999999999</v>
@@ -2417,9 +2417,9 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="20">
         <v>9.3840000000000007E-2</v>
@@ -2441,9 +2441,9 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="20">
         <v>4.6620000000000002E-2</v>
@@ -2465,9 +2465,9 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="20">
         <v>-2.1770000000000001E-2</v>
@@ -2489,9 +2489,9 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="20">
         <v>8.616E-2</v>
@@ -2513,9 +2513,9 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="20">
         <v>0.13739999999999999</v>
@@ -2537,7 +2537,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>2</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>3</v>
       </c>
@@ -2585,9 +2585,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="20">
         <v>0.11156000000000001</v>
@@ -2609,9 +2609,9 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="19">
         <v>0.50085000000000002</v>
@@ -2633,9 +2633,9 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="19">
         <v>-0.38217000000000001</v>
@@ -2657,7 +2657,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>4</v>
       </c>
@@ -2681,9 +2681,9 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="19">
         <v>0.83769000000000005</v>
@@ -2705,9 +2705,9 @@
         <v>1.1E-14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="19">
         <v>0.75822999999999996</v>
@@ -2729,9 +2729,9 @@
         <v>2.5000000000000002E-10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="19">
         <v>0.69320000000000004</v>
@@ -2748,13 +2748,13 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="29">
+      <c r="H23" s="33">
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="19">
         <v>0.70931999999999995</v>
@@ -2771,11 +2771,11 @@
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="21">
         <v>0.65810000000000002</v>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2809,27 +2809,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E61670A-EC09-4D32-BBF9-D4AD18A0D1AA}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="39"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -2837,51 +2837,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>0.59314</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="30">
         <v>0.378</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="29">
         <v>0.55674999999999997</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="30">
         <v>0.54862999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="29">
         <v>0.60360000000000003</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="30">
         <v>0.55262</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="31">
         <v>0.74299999999999999</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="32">
         <v>0.53993000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
     </row>
   </sheetData>
